--- a/data/05_input/zm.rn20b2.xlsx
+++ b/data/05_input/zm.rn20b2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/0D700672-118F-43BC-AA72-88891A82AFEB/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/983FA194-27BF-44FA-9492-BCDE010D916A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73E2E8-BD8C-B944-8291-0908D4A37F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353B41A-63FF-8B41-8455-0A1750218CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="7100" yWindow="500" windowWidth="13900" windowHeight="19880" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="203">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,574 +63,577 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR701_S163_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR701_S163_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR702</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR702_S164_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR702_S164_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR703</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR703_S165_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR703_S165_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR704</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR704_S166_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR704_S166_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR705</t>
   </si>
   <si>
     <t>BxM</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR705_S167_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR705_S167_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR707</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR707_S168_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR707_S168_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR708</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR708_S169_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR708_S169_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR709</t>
   </si>
   <si>
     <t>M0014</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR709_S170_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR709_S170_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR710</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR710_S171_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR710_S171_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR711</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR711_S172_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR711_S172_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR712</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR712_S173_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR712_S173_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR713</t>
   </si>
   <si>
     <t>M0014xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR713_S174_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR713_S174_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR714</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR714_S175_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR714_S175_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR715</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR715_S176_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR715_S176_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR716</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR716_S177_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR716_S177_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR717</t>
   </si>
   <si>
     <t>M0014xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR717_S178_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR717_S178_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR718</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR718_S179_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR718_S179_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR719</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR719_S180_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR719_S180_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR720</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR720_S181_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR720_S181_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR721</t>
   </si>
   <si>
     <t>M0016</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR721_S182_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR721_S182_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR722</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR722_S183_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR722_S183_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR723</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR723_S184_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR723_S184_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR724</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR724_S185_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR724_S185_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR725</t>
   </si>
   <si>
     <t>M0016xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR725_S186_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR725_S186_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR726</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR726_S268_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR726_S268_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR727</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR727_S269_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR727_S269_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR729</t>
   </si>
   <si>
     <t>M0016xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR729_S270_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR729_S270_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR730</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR730_S271_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR730_S271_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR731</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR731_S272_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR731_S272_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR732</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR732_S273_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR732_S273_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR733</t>
   </si>
   <si>
     <t>M0021</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR733_S274_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR733_S274_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR734</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR734_S275_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR734_S275_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR735</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR735_S276_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR735_S276_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR736</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR736_S277_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR736_S277_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR737</t>
   </si>
   <si>
     <t>M0021xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR737_S278_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR737_S278_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR738</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR738_S279_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR738_S279_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR739</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR739_S280_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR739_S280_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR740</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR740_S281_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR740_S281_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR741</t>
   </si>
   <si>
     <t>M0021xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR741_S282_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR741_S282_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR742</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR742_S283_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR742_S283_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR743</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR743_S284_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR743_S284_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR744</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR744_S285_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR744_S285_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR745</t>
   </si>
   <si>
     <t>M0317</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR745_S286_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR745_S286_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR746</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR746_S287_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR746_S287_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR747</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR747_S288_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR747_S288_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR748</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR748_S289_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR748_S289_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR749</t>
   </si>
   <si>
     <t>M0317xB73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR749_S290_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR749_S290_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR750</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR750_S291_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR750_S291_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR751</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR751_S292_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR751_S292_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR752</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR752_S293_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR752_S293_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR753</t>
   </si>
   <si>
     <t>M0317xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR753_S294_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR753_S294_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR754</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR754_S295_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR754_S295_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR755</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR755_S296_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR755_S296_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR756</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR756_S297_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR756_S297_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR757</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR757_S298_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR757_S298_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR758</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR758_S299_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR758_S299_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR759</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR759_S300_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR759_S300_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR760</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR760_S301_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR760_S301_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>BR761</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR761_S302_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/novaseq/200124_A00223_0310_BHLCMLDSXX/Springer_Project_068/BR761_S302_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR701_S163_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR701_S163_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR702_S164_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR702_S164_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR703_S165_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR703_S165_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR704_S166_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR704_S166_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR705_S167_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR705_S167_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR707_S168_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR707_S168_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR708_S169_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR708_S169_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR709_S170_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR709_S170_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR710_S171_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR710_S171_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR711_S172_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR711_S172_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR712_S173_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR712_S173_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR713_S174_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR713_S174_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR714_S175_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR714_S175_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR715_S176_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR715_S176_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR716_S177_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR716_S177_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR717_S178_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR717_S178_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR718_S179_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR718_S179_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR719_S180_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR719_S180_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR720_S181_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR720_S181_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR721_S182_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR721_S182_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR722_S183_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR722_S183_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR723_S184_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR723_S184_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR724_S185_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR724_S185_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR725_S186_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR725_S186_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR726_S268_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR726_S268_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR727_S269_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR727_S269_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR729_S270_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR729_S270_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR730_S271_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR730_S271_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR731_S272_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR731_S272_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR732_S273_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR732_S273_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR733_S274_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR733_S274_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR734_S275_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR734_S275_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR735_S276_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR735_S276_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR736_S277_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR736_S277_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR737_S278_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR737_S278_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR738_S279_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR738_S279_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR739_S280_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR739_S280_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR740_S281_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR740_S281_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR741_S282_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR741_S282_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR742_S283_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR742_S283_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR743_S284_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR743_S284_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR744_S285_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR744_S285_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR745_S286_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR745_S286_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR746_S287_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR746_S287_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR747_S288_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR747_S288_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR748_S289_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR748_S289_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR749_S290_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR749_S290_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR750_S291_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR750_S291_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR751_S292_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR751_S292_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR752_S293_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR752_S293_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR753_S294_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR753_S294_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR754_S295_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR754_S295_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR755_S296_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR755_S296_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR756_S297_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR756_S297_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR757_S298_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR757_S298_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR758_S299_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR758_S299_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR759_S300_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR759_S300_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR760_S301_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR760_S301_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR761_S302_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>200124_A00223_0310_BHLCMLDSXX/BR761_S302_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="H2:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1036,19 +1039,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1059,19 +1062,19 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1082,19 +1085,19 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1105,1279 +1108,1279 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>84</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>84</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>84</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>84</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>84</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>84</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="I33" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>84</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>84</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>84</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>84</v>
       </c>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>84</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>84</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I47" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="b">
-        <v>1</v>
+      <c r="F48" t="s">
+        <v>84</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="I48" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" t="b">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>84</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I49" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
-      <c r="F50" t="b">
-        <v>1</v>
+      <c r="F50" t="s">
+        <v>84</v>
       </c>
       <c r="H50" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" t="b">
-        <v>1</v>
+      <c r="F51" t="s">
+        <v>84</v>
       </c>
       <c r="H51" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="I51" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>84</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>84</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
+      <c r="F54" t="s">
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>84</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>84</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
+      <c r="F59" t="s">
+        <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>84</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
